--- a/data/trans_orig/P15E_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D74786-0BB7-43E2-8673-672E03DDE7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD21608-A724-4D20-AF2B-16FD8CF2ED85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE88F13A-66B0-4356-88BE-EA60ADAC3A9D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DF9877E-1279-492D-BEAC-E588489E0F58}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -98,82 +98,82 @@
     <t>34,9%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>58,85%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
   </si>
   <si>
     <t>61,19%</t>
   </si>
   <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
   </si>
   <si>
     <t>60,53%</t>
   </si>
   <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FE37BE-6266-4229-A64E-1FC4C3168633}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFD6862-4081-4778-ACED-7DF2512057EA}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P15E_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD21608-A724-4D20-AF2B-16FD8CF2ED85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB3B5FA6-AF04-4F5C-97AD-0F3A5A9199E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DF9877E-1279-492D-BEAC-E588489E0F58}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42D16D63-F670-4BB7-94FE-0E27699DD727}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFD6862-4081-4778-ACED-7DF2512057EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5374B139-6392-43D8-9076-E558BA31E180}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P15E_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB3B5FA6-AF04-4F5C-97AD-0F3A5A9199E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16639B07-D84D-4138-B518-3660F8A05C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{42D16D63-F670-4BB7-94FE-0E27699DD727}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BEA7EB9-0410-4A9B-AB59-8886E6EFAEF2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -98,82 +98,82 @@
     <t>34,9%</t>
   </si>
   <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>58,85%</t>
   </si>
   <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
   </si>
   <si>
     <t>61,19%</t>
   </si>
   <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
   </si>
   <si>
     <t>60,53%</t>
   </si>
   <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5374B139-6392-43D8-9076-E558BA31E180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722E2FD4-CF1C-4EF6-811B-2C4B65C7D782}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P15E_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16639B07-D84D-4138-B518-3660F8A05C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E59EE7E0-8B24-4DEA-A9E1-8A18C1AA35AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BEA7EB9-0410-4A9B-AB59-8886E6EFAEF2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BD469A72-BA49-464F-9C17-EA4E6A8F39FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="102">
   <si>
     <t>Población que ha sufrido alguna caída que precise atención sanitaria en el último año en 2023 (Tasa respuesta: 2,64%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No</t>
@@ -80,103 +80,265 @@
     <t>Sí, una vez</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
   </si>
   <si>
     <t>27,9%</t>
   </si>
   <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
   </si>
   <si>
     <t>9,59%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -591,8 +753,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722E2FD4-CF1C-4EF6-811B-2C4B65C7D782}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730B64BD-5E92-4A91-8DFB-EDE773B70726}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1619,10 +1781,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>12399</v>
+        <v>5555</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -1634,10 +1796,10 @@
         <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I24" s="7">
-        <v>25062</v>
+        <v>9989</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>22</v>
@@ -1649,10 +1811,10 @@
         <v>24</v>
       </c>
       <c r="M24" s="7">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="N24" s="7">
-        <v>37461</v>
+        <v>15544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>25</v>
@@ -1670,10 +1832,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>2218</v>
+        <v>1081</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>28</v>
@@ -1685,10 +1847,10 @@
         <v>30</v>
       </c>
       <c r="H25" s="7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>9800</v>
+        <v>2811</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>31</v>
@@ -1700,10 +1862,10 @@
         <v>33</v>
       </c>
       <c r="M25" s="7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>12018</v>
+        <v>3893</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>34</v>
@@ -1721,10 +1883,10 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7">
-        <v>20905</v>
+        <v>6736</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>37</v>
@@ -1736,10 +1898,10 @@
         <v>39</v>
       </c>
       <c r="H26" s="7">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="I26" s="7">
-        <v>54976</v>
+        <v>16940</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>40</v>
@@ -1751,10 +1913,10 @@
         <v>42</v>
       </c>
       <c r="M26" s="7">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="N26" s="7">
-        <v>75881</v>
+        <v>23676</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>43</v>
@@ -1772,25 +1934,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>22</v>
+      </c>
+      <c r="D27" s="7">
+        <v>13372</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="7">
         <v>60</v>
       </c>
-      <c r="D27" s="7">
-        <v>35522</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="7">
-        <v>171</v>
-      </c>
       <c r="I27" s="7">
-        <v>89838</v>
+        <v>29741</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>46</v>
@@ -1802,10 +1964,10 @@
         <v>46</v>
       </c>
       <c r="M27" s="7">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="N27" s="7">
-        <v>125360</v>
+        <v>43113</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -1819,55 +1981,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D28" s="7">
-        <v>12399</v>
+        <v>6499</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="H28" s="7">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I28" s="7">
-        <v>25062</v>
+        <v>13085</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="M28" s="7">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="N28" s="7">
-        <v>37461</v>
+        <v>19584</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,49 +2038,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>2218</v>
+        <v>1112</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="H29" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I29" s="7">
-        <v>9800</v>
+        <v>6192</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="M29" s="7">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N29" s="7">
-        <v>12018</v>
+        <v>7304</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,49 +2089,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D30" s="7">
-        <v>20905</v>
+        <v>13126</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H30" s="7">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="I30" s="7">
-        <v>54976</v>
+        <v>33673</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="M30" s="7">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="N30" s="7">
-        <v>75881</v>
+        <v>46798</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,63 +2140,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>38</v>
+      </c>
+      <c r="D31" s="7">
+        <v>20737</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="7">
+        <v>111</v>
+      </c>
+      <c r="I31" s="7">
+        <v>52949</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="7">
+        <v>149</v>
+      </c>
+      <c r="N31" s="7">
+        <v>73686</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>20</v>
+      </c>
+      <c r="D32" s="7">
+        <v>12054</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="7">
+        <v>48</v>
+      </c>
+      <c r="I32" s="7">
+        <v>23074</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M32" s="7">
+        <v>68</v>
+      </c>
+      <c r="N32" s="7">
+        <v>35127</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2194</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="7">
+        <v>19</v>
+      </c>
+      <c r="I33" s="7">
+        <v>9003</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M33" s="7">
+        <v>23</v>
+      </c>
+      <c r="N33" s="7">
+        <v>11197</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>36</v>
+      </c>
+      <c r="D34" s="7">
+        <v>19862</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="7">
+        <v>104</v>
+      </c>
+      <c r="I34" s="7">
+        <v>50613</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" s="7">
+        <v>140</v>
+      </c>
+      <c r="N34" s="7">
+        <v>70474</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>60</v>
       </c>
-      <c r="D31" s="7">
-        <v>35522</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>34109</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="7">
         <v>171</v>
       </c>
-      <c r="I31" s="7">
-        <v>89838</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>82690</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M35" s="7">
         <v>231</v>
       </c>
-      <c r="N31" s="7">
-        <v>125360</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="N35" s="7">
+        <v>116798</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
